--- a/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_8º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B28" s="65">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B85" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -1297,57 +1297,57 @@
     <row r="110">
       <c t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">Trafico De Especies Vegetales Art 10 Ley 20.000</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B110" s="65">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c t="inlineStr" r="A111">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B111" s="65">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c t="inlineStr" r="A112">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B112" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c t="inlineStr" r="A113">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B113" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
       <c t="inlineStr" r="A114">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
         </is>
       </c>
       <c r="B114" s="65">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c t="inlineStr" r="A115">
         <is>
-          <t xml:space="preserve">Usurpacion No Violenta (Art. 458 Codigo Penal).</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B115" s="65">
@@ -1357,17 +1357,17 @@
     <row r="116">
       <c t="inlineStr" r="A116">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
         </is>
       </c>
       <c r="B116" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c t="inlineStr" r="A117">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Violacion De Secretos.</t>
         </is>
       </c>
       <c r="B117" s="65">
@@ -1377,20 +1377,10 @@
     <row r="118">
       <c t="inlineStr" r="A118">
         <is>
-          <t xml:space="preserve">Violacion De Secretos.</t>
+          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
       <c r="B118" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c t="inlineStr" r="A119">
-        <is>
-          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
-        </is>
-      </c>
-      <c r="B119" s="65">
         <v>2</v>
       </c>
     </row>
